--- a/college_data_2023_27.xlsx
+++ b/college_data_2023_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>section</t>
+          <t>sec</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,7 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>area_of_interest</t>
+          <t>aoi</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
         </is>
       </c>
     </row>
@@ -486,6 +496,12 @@
           <t>Area of Interest</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,13 +521,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>IT Jobs</t>
         </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -532,13 +554,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -559,13 +587,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Placement</t>
         </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -586,13 +620,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Placement</t>
         </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -613,13 +653,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -640,13 +686,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>IT Jobs</t>
         </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +719,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -694,13 +752,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>AI/ML , Automation and Robotic</t>
         </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -721,13 +785,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>ComputerScience Engineering</t>
         </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -748,13 +818,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -775,13 +851,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Computer Science</t>
         </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -802,13 +884,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Cyber Security and Forensic</t>
         </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -829,13 +917,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Cloud Computing</t>
         </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -856,13 +950,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -883,13 +983,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -910,13 +1016,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Cloud Computing,AI&amp;ML, Cyber Security</t>
         </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -937,13 +1049,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Software</t>
         </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -964,13 +1082,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -991,13 +1115,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1018,13 +1148,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Game development</t>
         </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1045,13 +1181,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Software development</t>
         </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1072,13 +1214,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1099,13 +1247,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1126,13 +1280,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>Jobs</t>
         </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1153,13 +1313,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>ITJobs</t>
         </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1180,13 +1346,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1207,13 +1379,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>Programming,AI</t>
         </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1234,13 +1412,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1261,13 +1445,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1288,13 +1478,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1315,13 +1511,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1342,13 +1544,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>Playing Cricket</t>
         </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1369,13 +1577,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>Web Development</t>
         </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1396,13 +1610,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>Cyber security, backend Developement, web 3</t>
         </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1423,13 +1643,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1450,13 +1676,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1477,13 +1709,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>Higher Study</t>
         </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1504,13 +1742,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>Data Analytics</t>
         </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1531,13 +1775,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>Web Development and Cyber Security</t>
         </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1558,13 +1808,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1585,13 +1841,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>Drawing</t>
         </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1612,13 +1874,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1639,13 +1907,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1666,13 +1940,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>Business</t>
         </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1693,13 +1973,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1720,13 +2006,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Jobs</t>
         </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1747,13 +2039,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1774,13 +2072,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>Game Developer</t>
         </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1801,13 +2105,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>AI/ML</t>
         </is>
+      </c>
+      <c r="F51" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1828,13 +2138,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1855,13 +2171,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1882,13 +2204,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>Front End</t>
         </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1909,13 +2237,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1936,13 +2270,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>Web Development</t>
         </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1963,13 +2303,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1990,13 +2336,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>Web Development</t>
         </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2017,13 +2369,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2044,13 +2402,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F60" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2071,13 +2435,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>DevelopmentArea</t>
         </is>
+      </c>
+      <c r="F61" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2098,13 +2468,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2125,13 +2501,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F63" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2152,13 +2534,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>AI-ML, GATE</t>
         </is>
+      </c>
+      <c r="F64" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2179,13 +2567,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F65" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2206,13 +2600,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>App Development</t>
         </is>
+      </c>
+      <c r="F66" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2233,13 +2633,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F67" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2260,13 +2666,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2287,13 +2699,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>Coding, Music</t>
         </is>
+      </c>
+      <c r="F69" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2314,13 +2732,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>Mathas, Development</t>
         </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2341,13 +2765,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F71" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2368,13 +2798,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
+      </c>
+      <c r="F72" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2395,13 +2831,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2422,13 +2864,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>AppDevelopment</t>
         </is>
+      </c>
+      <c r="F74" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2449,13 +2897,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2476,13 +2930,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F76" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2503,13 +2963,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>Web Development</t>
         </is>
+      </c>
+      <c r="F77" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2530,13 +2996,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F78" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2557,13 +3029,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F79" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2584,13 +3062,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
+      </c>
+      <c r="F80" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2611,13 +3095,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F81" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2638,13 +3128,19 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>Web Development</t>
         </is>
+      </c>
+      <c r="F82" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2665,13 +3161,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F83" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2692,13 +3194,19 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>Web Development,Coding</t>
         </is>
+      </c>
+      <c r="F84" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2719,13 +3227,19 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F85" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2746,13 +3260,19 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2773,13 +3293,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>Dancing</t>
         </is>
+      </c>
+      <c r="F87" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2800,13 +3326,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>Ethical Hacking</t>
         </is>
+      </c>
+      <c r="F88" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2827,13 +3359,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F89" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2854,13 +3392,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>Computer Science</t>
         </is>
+      </c>
+      <c r="F90" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2881,13 +3425,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>Web and Developing</t>
         </is>
+      </c>
+      <c r="F91" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2908,13 +3458,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F92" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2935,13 +3491,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>App Development</t>
         </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2962,13 +3524,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>Coding,Computer</t>
         </is>
+      </c>
+      <c r="F94" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2989,13 +3557,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
+      </c>
+      <c r="F95" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3016,13 +3590,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>AIML</t>
         </is>
+      </c>
+      <c r="F96" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3043,13 +3623,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>CSF</t>
         </is>
+      </c>
+      <c r="F97" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3070,13 +3656,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F98" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3097,13 +3689,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>Coding, Drawing</t>
         </is>
+      </c>
+      <c r="F99" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3124,13 +3722,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F100" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3151,13 +3755,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F101" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3178,13 +3788,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>Programming, Sports</t>
         </is>
+      </c>
+      <c r="F102" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3205,13 +3821,19 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F103" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3232,13 +3854,19 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>CyberSecurity</t>
         </is>
+      </c>
+      <c r="F104" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3259,13 +3887,19 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F105" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3286,13 +3920,19 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>Music</t>
         </is>
+      </c>
+      <c r="F106" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3313,13 +3953,19 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F107" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3340,13 +3986,19 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>Singing,Coding</t>
         </is>
+      </c>
+      <c r="F108" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3367,13 +4019,19 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F109" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3394,13 +4052,19 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>Coding, Sports, Drawing</t>
         </is>
+      </c>
+      <c r="F110" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3421,13 +4085,19 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>Coding, Sports</t>
         </is>
+      </c>
+      <c r="F111" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3448,13 +4118,19 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
+      </c>
+      <c r="F112" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3475,13 +4151,19 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>Machine Learning , Programming</t>
         </is>
+      </c>
+      <c r="F113" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3502,13 +4184,19 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F114" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3529,13 +4217,19 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F115" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3556,13 +4250,19 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>Data Analysis</t>
         </is>
+      </c>
+      <c r="F116" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3583,13 +4283,19 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F117" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3610,13 +4316,19 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F118" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3637,13 +4349,19 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F119" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3664,13 +4382,19 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>Software Development</t>
         </is>
+      </c>
+      <c r="F120" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3691,13 +4415,19 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F121" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3718,13 +4448,19 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F122" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3745,13 +4481,19 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F123" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3772,13 +4514,19 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F124" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3799,13 +4547,19 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>Automoblies , propulsion systems and art</t>
         </is>
+      </c>
+      <c r="F125" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3826,13 +4580,19 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F126" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3853,13 +4613,19 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>CODING , ROBOTS, HACKING</t>
         </is>
+      </c>
+      <c r="F127" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3880,13 +4646,19 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>Cyber Security</t>
         </is>
+      </c>
+      <c r="F128" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3907,13 +4679,19 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F129" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3934,13 +4712,19 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F130" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3961,13 +4745,19 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>Coding, sports and many more</t>
         </is>
+      </c>
+      <c r="F131" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3988,13 +4778,19 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>Jobs</t>
         </is>
+      </c>
+      <c r="F132" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4015,13 +4811,19 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F133" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -4042,13 +4844,19 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
+      </c>
+      <c r="F134" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -4069,13 +4877,19 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>Web Development</t>
         </is>
+      </c>
+      <c r="F135" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -4096,13 +4910,19 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F136" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -4123,13 +4943,19 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F137" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -4150,13 +4976,19 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F138" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4177,13 +5009,19 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F139" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4204,13 +5042,19 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>Programming, Game Designing and Game Development, Cyber Security, AIML</t>
         </is>
+      </c>
+      <c r="F140" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4231,13 +5075,19 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
+      </c>
+      <c r="F141" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4258,13 +5108,19 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>App Development</t>
         </is>
+      </c>
+      <c r="F142" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4285,13 +5141,19 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F143" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4312,13 +5174,19 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F144" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4339,13 +5207,19 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F145" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4366,13 +5240,19 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
           <t>Dancing , painting.</t>
         </is>
+      </c>
+      <c r="F146" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4393,13 +5273,19 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F147" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4420,13 +5306,19 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F148" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4447,13 +5339,19 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
+      </c>
+      <c r="F149" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4474,13 +5372,19 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F150" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4501,13 +5405,19 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>Programming language,game development</t>
         </is>
+      </c>
+      <c r="F151" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4528,13 +5438,19 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
           <t>Coding, Dancing</t>
         </is>
+      </c>
+      <c r="F152" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4555,13 +5471,19 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F153" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4582,13 +5504,19 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>Painting</t>
         </is>
+      </c>
+      <c r="F154" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4609,13 +5537,19 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F155" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4636,13 +5570,19 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F156" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4663,13 +5603,19 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F157" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4690,13 +5636,19 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>Online Games</t>
         </is>
+      </c>
+      <c r="F158" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4717,13 +5669,19 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F159" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4744,13 +5702,19 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>Entrepreneurship</t>
         </is>
+      </c>
+      <c r="F160" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4771,13 +5735,19 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
+      </c>
+      <c r="F161" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4798,13 +5768,19 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F162" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4825,13 +5801,19 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
+      </c>
+      <c r="F163" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4852,13 +5834,19 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F164" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4879,13 +5867,19 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>Software developer</t>
         </is>
+      </c>
+      <c r="F165" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -4906,13 +5900,19 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
+      </c>
+      <c r="F166" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4933,13 +5933,19 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F167" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4960,13 +5966,19 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>Programming, Music</t>
         </is>
+      </c>
+      <c r="F168" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4987,13 +5999,19 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>Game developing</t>
         </is>
+      </c>
+      <c r="F169" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -5014,13 +6032,19 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>Cyber Security</t>
         </is>
+      </c>
+      <c r="F170" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -5041,13 +6065,19 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
           <t>Programming,Sports</t>
         </is>
+      </c>
+      <c r="F171" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -5068,13 +6098,19 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
           <t>Singing and space studies.</t>
         </is>
+      </c>
+      <c r="F172" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -5095,13 +6131,19 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>Music</t>
         </is>
+      </c>
+      <c r="F173" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -5122,13 +6164,19 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>Playing Games</t>
         </is>
+      </c>
+      <c r="F174" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -5149,13 +6197,19 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
           <t>Web development,AI,ROBOTICS</t>
         </is>
+      </c>
+      <c r="F175" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -5176,13 +6230,19 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>Jobs</t>
         </is>
+      </c>
+      <c r="F176" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -5203,13 +6263,19 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F177" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5230,13 +6296,19 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>Web Developer</t>
         </is>
+      </c>
+      <c r="F178" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -5257,13 +6329,19 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>Software Developer</t>
         </is>
+      </c>
+      <c r="F179" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -5284,13 +6362,19 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>Jobs</t>
         </is>
+      </c>
+      <c r="F180" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -5311,13 +6395,19 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>IT Jobs</t>
         </is>
+      </c>
+      <c r="F181" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -5338,13 +6428,19 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F182" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5365,13 +6461,19 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
           <t>Literature, Dance</t>
         </is>
+      </c>
+      <c r="F183" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5392,13 +6494,19 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
+      </c>
+      <c r="F184" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5419,13 +6527,19 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
           <t>Music</t>
         </is>
+      </c>
+      <c r="F185" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -5446,13 +6560,19 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F186" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5473,13 +6593,19 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
           <t>Coding and Football</t>
         </is>
+      </c>
+      <c r="F187" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5500,13 +6626,19 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F188" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5527,13 +6659,19 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>IT Jobs</t>
         </is>
+      </c>
+      <c r="F189" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5554,13 +6692,19 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>IT Jobs</t>
         </is>
+      </c>
+      <c r="F190" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -5581,13 +6725,19 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F191" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -5608,13 +6758,19 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
           <t>AIML , UIUX</t>
         </is>
+      </c>
+      <c r="F192" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5635,13 +6791,19 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>Dance, programming</t>
         </is>
+      </c>
+      <c r="F193" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5662,13 +6824,19 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>IT Jobs</t>
         </is>
+      </c>
+      <c r="F194" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -5689,13 +6857,19 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>Ai</t>
         </is>
+      </c>
+      <c r="F195" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -5716,13 +6890,19 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>Studies, sports</t>
         </is>
+      </c>
+      <c r="F196" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -5743,13 +6923,19 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F197" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5770,13 +6956,19 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F198" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -5797,13 +6989,19 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>IT Jobs</t>
         </is>
+      </c>
+      <c r="F199" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -5824,13 +7022,19 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>Volleyball, Dance, Sketch making, coding</t>
         </is>
+      </c>
+      <c r="F200" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5851,13 +7055,19 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>Higher Education</t>
         </is>
+      </c>
+      <c r="F201" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5878,13 +7088,19 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>Coding</t>
         </is>
+      </c>
+      <c r="F202" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -5905,13 +7121,19 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>B.Tech. CSE (Core)</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
+      </c>
+      <c r="F203" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5940,6 +7162,12 @@
           <t>Area of Interest</t>
         </is>
       </c>
+      <c r="F204" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5967,6 +7195,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F205" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5994,6 +7228,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F206" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6021,6 +7261,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F207" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6048,6 +7294,12 @@
           <t>AI</t>
         </is>
       </c>
+      <c r="F208" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6075,6 +7327,12 @@
           <t>Jobs</t>
         </is>
       </c>
+      <c r="F209" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6102,6 +7360,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F210" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6129,6 +7393,12 @@
           <t>N\A</t>
         </is>
       </c>
+      <c r="F211" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6156,6 +7426,12 @@
           <t>Computer programming languages</t>
         </is>
       </c>
+      <c r="F212" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6183,6 +7459,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F213" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6210,6 +7492,12 @@
           <t>N\A</t>
         </is>
       </c>
+      <c r="F214" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6237,6 +7525,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F215" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6264,6 +7558,12 @@
           <t>IT Jobs</t>
         </is>
       </c>
+      <c r="F216" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6291,6 +7591,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F217" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6318,6 +7624,12 @@
           <t>AI</t>
         </is>
       </c>
+      <c r="F218" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6345,6 +7657,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F219" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6372,6 +7690,12 @@
           <t>Cricket</t>
         </is>
       </c>
+      <c r="F220" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6399,6 +7723,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F221" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6426,6 +7756,12 @@
           <t>Coding, Reading and Drawing</t>
         </is>
       </c>
+      <c r="F222" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6453,6 +7789,12 @@
           <t>INTERNET OF THINGS</t>
         </is>
       </c>
+      <c r="F223" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6480,6 +7822,12 @@
           <t>AI&amp;ML</t>
         </is>
       </c>
+      <c r="F224" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6507,6 +7855,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F225" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6534,6 +7888,12 @@
           <t>App Development</t>
         </is>
       </c>
+      <c r="F226" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6561,6 +7921,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F227" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6588,6 +7954,12 @@
           <t>Development</t>
         </is>
       </c>
+      <c r="F228" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6615,6 +7987,12 @@
           <t>I want to work on this field</t>
         </is>
       </c>
+      <c r="F229" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6642,6 +8020,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F230" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6669,6 +8053,12 @@
           <t>Dance</t>
         </is>
       </c>
+      <c r="F231" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6696,6 +8086,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F232" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6723,6 +8119,12 @@
           <t>Sports</t>
         </is>
       </c>
+      <c r="F233" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6750,6 +8152,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F234" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6777,6 +8185,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F235" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6804,6 +8218,12 @@
           <t>N\A</t>
         </is>
       </c>
+      <c r="F236" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6831,6 +8251,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F237" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6858,6 +8284,12 @@
           <t>AI</t>
         </is>
       </c>
+      <c r="F238" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6885,6 +8317,12 @@
           <t>IT Jobs</t>
         </is>
       </c>
+      <c r="F239" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6912,6 +8350,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F240" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6939,6 +8383,12 @@
           <t>AI</t>
         </is>
       </c>
+      <c r="F241" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6966,6 +8416,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F242" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6993,6 +8449,12 @@
           <t>Sports, Travelling, Music</t>
         </is>
       </c>
+      <c r="F243" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7020,6 +8482,12 @@
           <t>IT Job and Reaserch</t>
         </is>
       </c>
+      <c r="F244" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7047,6 +8515,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F245" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7074,6 +8548,12 @@
           <t>N\A</t>
         </is>
       </c>
+      <c r="F246" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7101,6 +8581,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F247" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7128,6 +8614,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F248" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7155,6 +8647,12 @@
           <t>Dancing , Travelling</t>
         </is>
       </c>
+      <c r="F249" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7182,6 +8680,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F250" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7209,6 +8713,12 @@
           <t>Computer</t>
         </is>
       </c>
+      <c r="F251" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7236,6 +8746,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F252" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7263,6 +8779,12 @@
           <t>Web Development</t>
         </is>
       </c>
+      <c r="F253" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7290,6 +8812,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F254" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7317,6 +8845,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F255" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7344,6 +8878,12 @@
           <t>Learning programming languages, Learning new tcehs</t>
         </is>
       </c>
+      <c r="F256" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7371,6 +8911,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F257" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7398,6 +8944,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F258" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7425,6 +8977,12 @@
           <t>Programming and Entrepreneurship</t>
         </is>
       </c>
+      <c r="F259" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7452,6 +9010,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F260" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7479,6 +9043,12 @@
           <t>N\A</t>
         </is>
       </c>
+      <c r="F261" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7506,6 +9076,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F262" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7533,6 +9109,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F263" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7560,6 +9142,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F264" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7587,6 +9175,12 @@
           <t>AI</t>
         </is>
       </c>
+      <c r="F265" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7614,6 +9208,12 @@
           <t>Include writing various types of speeches, exploring new things.</t>
         </is>
       </c>
+      <c r="F266" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7641,6 +9241,12 @@
           <t>Coding &amp; App Development</t>
         </is>
       </c>
+      <c r="F267" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7668,6 +9274,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F268" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7695,6 +9307,12 @@
           <t>AI and Electronics</t>
         </is>
       </c>
+      <c r="F269" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7722,6 +9340,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F270" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7749,6 +9373,12 @@
           <t>Aiml, Dancing</t>
         </is>
       </c>
+      <c r="F271" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7776,6 +9406,12 @@
           <t>N\A</t>
         </is>
       </c>
+      <c r="F272" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7803,6 +9439,12 @@
           <t>AI Area</t>
         </is>
       </c>
+      <c r="F273" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7830,6 +9472,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F274" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7857,6 +9505,12 @@
           <t>AI</t>
         </is>
       </c>
+      <c r="F275" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7884,6 +9538,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F276" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7911,6 +9571,12 @@
           <t>Coding, Photography, Editing</t>
         </is>
       </c>
+      <c r="F277" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7938,6 +9604,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F278" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7965,6 +9637,12 @@
           <t>Jobs</t>
         </is>
       </c>
+      <c r="F279" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7992,6 +9670,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F280" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8019,6 +9703,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F281" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8046,6 +9736,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F282" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8073,6 +9769,12 @@
           <t>Area of Interest</t>
         </is>
       </c>
+      <c r="F283" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G283" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8100,6 +9802,12 @@
           <t>Hacking</t>
         </is>
       </c>
+      <c r="F284" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8127,6 +9835,12 @@
           <t>Best Cricketer</t>
         </is>
       </c>
+      <c r="F285" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8154,6 +9868,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F286" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8181,6 +9901,12 @@
           <t>Ethical Hacking, Singing songs, Playing guitar</t>
         </is>
       </c>
+      <c r="F287" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8208,6 +9934,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F288" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8235,6 +9967,12 @@
           <t>Hacking</t>
         </is>
       </c>
+      <c r="F289" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G289" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8262,6 +10000,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F290" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8289,6 +10033,12 @@
           <t>Hacking</t>
         </is>
       </c>
+      <c r="F291" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8316,6 +10066,12 @@
           <t>Operating System Security and Encryption</t>
         </is>
       </c>
+      <c r="F292" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G292" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8343,6 +10099,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F293" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8370,6 +10132,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F294" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8397,6 +10165,12 @@
           <t>Jobs</t>
         </is>
       </c>
+      <c r="F295" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G295" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8424,6 +10198,12 @@
           <t>Cyber security, UI UX, AR VR, Web Development , App Development, (Hobbies- martial arts, singing , drawing )</t>
         </is>
       </c>
+      <c r="F296" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G296" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8451,6 +10231,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F297" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8478,6 +10264,12 @@
           <t>N\A</t>
         </is>
       </c>
+      <c r="F298" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8505,6 +10297,12 @@
           <t>IT Jobs</t>
         </is>
       </c>
+      <c r="F299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8532,6 +10330,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8559,6 +10363,12 @@
           <t>AR VR, Graphic Design, App Development, Website Development,</t>
         </is>
       </c>
+      <c r="F301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8586,6 +10396,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8613,6 +10429,12 @@
           <t>N\A</t>
         </is>
       </c>
+      <c r="F303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8640,6 +10462,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G304" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8667,6 +10495,12 @@
           <t>Ethical Hacking</t>
         </is>
       </c>
+      <c r="F305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8694,6 +10528,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G306" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8721,6 +10561,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8748,6 +10594,12 @@
           <t>Web Development</t>
         </is>
       </c>
+      <c r="F308" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8775,6 +10627,12 @@
           <t>Coding, Literature/ Creative Writing, Guitar and Drama.</t>
         </is>
       </c>
+      <c r="F309" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8802,6 +10660,12 @@
           <t>Coding , Maths, Drawing</t>
         </is>
       </c>
+      <c r="F310" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8829,6 +10693,12 @@
           <t>Programming</t>
         </is>
       </c>
+      <c r="F311" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8856,6 +10726,12 @@
           <t>IT Jobs</t>
         </is>
       </c>
+      <c r="F312" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8883,6 +10759,12 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="F313" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8910,6 +10792,12 @@
           <t>Coding</t>
         </is>
       </c>
+      <c r="F314" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8936,6 +10824,12 @@
         <is>
           <t>Data Analysisis</t>
         </is>
+      </c>
+      <c r="F315" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G315" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
